--- a/data/nuc_cell_seg_delivery_20170217/20161219_S01.xlsx
+++ b/data/nuc_cell_seg_delivery_20170217/20161219_S01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="0" windowWidth="19095" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
     <t>outputNucSegWholeSegScaleFilename</t>
   </si>
   <si>
-    <t>MYH10</t>
+    <t>Myosin IIB</t>
   </si>
   <si>
     <t>\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_17_Nuc_Cell_Seg_For_Release_Group_2\20161219_S01\nuc_cell_segmentation</t>
@@ -975,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1:W51"/>
     </sheetView>
   </sheetViews>
